--- a/examples/seating_plan/spreadsheets/classroom-seating_plan.xlsx
+++ b/examples/seating_plan/spreadsheets/classroom-seating_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\seating_plan\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF6534-342A-43F6-879C-82812C589FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C775C1-EBC0-461C-86A6-9FC17526B5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>1</t>
   </si>
@@ -180,10 +180,10 @@
     <t>good</t>
   </si>
   <si>
-    <t>Esther Sido, Samuel Dixon</t>
-  </si>
-  <si>
     <t>Niko Morris, Stanley Hirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esther Sido, Samuel Dixon  </t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,6 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1502,7 +1501,9 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
@@ -1527,7 +1528,9 @@
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="10" t="s">
         <v>50</v>
       </c>
@@ -1577,7 +1580,9 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="12" t="s">
         <v>49</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>49</v>
@@ -1779,7 +1784,9 @@
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="12" t="s">
         <v>47</v>
       </c>
@@ -1930,7 +1937,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>47</v>
@@ -2008,7 +2015,9 @@
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="C27" s="12" t="s">
         <v>47</v>
       </c>
@@ -2024,7 +2033,9 @@
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C28" s="12" t="s">
         <v>49</v>
       </c>
@@ -2117,7 +2128,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
